--- a/app/outputs/needs_match.xlsx
+++ b/app/outputs/needs_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>AHSA Platform</t>
   </si>
@@ -145,19 +145,61 @@
     <t>eggXYt</t>
   </si>
   <si>
-    <t>Org_y</t>
+    <t>Org_x</t>
+  </si>
+  <si>
+    <t>American Student Assistance (ASA)</t>
   </si>
   <si>
     <t>BMW Foundation Herbert Quandt</t>
   </si>
   <si>
+    <t>Clint Taylor</t>
+  </si>
+  <si>
     <t>Clorox</t>
   </si>
   <si>
+    <t>Conduent</t>
+  </si>
+  <si>
+    <t>Deshpande Foundation</t>
+  </si>
+  <si>
+    <t>Firefly Innovations</t>
+  </si>
+  <si>
+    <t>Grupo Salinas</t>
+  </si>
+  <si>
     <t>Ingredion</t>
   </si>
   <si>
+    <t>Kevin Przybocki</t>
+  </si>
+  <si>
+    <t>Llamasoft</t>
+  </si>
+  <si>
+    <t>Merian Ventures</t>
+  </si>
+  <si>
+    <t>Mondi Group</t>
+  </si>
+  <si>
+    <t>Pfizer Inc.</t>
+  </si>
+  <si>
+    <t>Someone Else's Child Foundation</t>
+  </si>
+  <si>
     <t>The Hague Business Agency</t>
+  </si>
+  <si>
+    <t>The Kamath Family Foundation</t>
+  </si>
+  <si>
+    <t>Twilio.org</t>
   </si>
 </sst>
 </file>
@@ -515,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AR19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,28 +702,28 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -699,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -714,16 +756,16 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -732,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -759,31 +801,31 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
         <v>1</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -794,13 +836,13 @@
         <v>45</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -833,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -851,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -878,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -893,16 +935,16 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -917,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -931,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -979,16 +1021,16 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1003,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1015,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1030,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -1045,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1068,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1080,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1140,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1167,13 +1209,13 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -1188,6 +1230,1882 @@
         <v>0</v>
       </c>
       <c r="AR5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>2</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>2</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>2</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>2</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>3</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>3</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>2</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>2</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>3</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>3</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>3</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>3</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>3</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>2</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>2</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>2</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>2</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>2</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>2</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>2</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>2</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
         <v>0</v>
       </c>
     </row>

--- a/app/outputs/needs_match.xlsx
+++ b/app/outputs/needs_match.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL113"/>
+  <dimension ref="A1:AK113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,80 +547,75 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Noval</t>
+          <t>Nucleus</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Nucleus</t>
+          <t>PENSA *660#</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>PENSA *660#</t>
+          <t>PODD</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>PODD</t>
+          <t>SOLshare</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>SOLshare</t>
+          <t>Salamat</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Salamat</t>
+          <t>Sisters of Code</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Sisters of Code</t>
+          <t>SmartFish Mexico</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>SmartFish Mexico</t>
+          <t>Someone Somewhere</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Someone Somewhere</t>
+          <t>Symbrosia</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Symbrosia</t>
+          <t>TamoJunto.org.br</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>TamoJunto.org.br</t>
+          <t>Thaki</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Thaki</t>
+          <t>The Last Mile</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>The Last Mile</t>
+          <t>Universally Friendly Obturator</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Universally Friendly Obturator</t>
+          <t>Whole Surplus</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Whole Surplus</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Yiya AirScience</t>
         </is>
@@ -696,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
         <v>1</v>
@@ -714,33 +709,30 @@
         <v>1</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="n">
         <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -858,9 +850,6 @@
       <c r="AK3" t="n">
         <v>0</v>
       </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -932,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
         <v>2</v>
@@ -941,42 +930,39 @@
         <v>2</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
         <v>4</v>
       </c>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1050,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1092,9 +1078,6 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1168,51 +1151,48 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y6" t="n">
         <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
         <v>2</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1286,51 +1266,48 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y7" t="n">
         <v>2</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG7" t="n">
         <v>2</v>
       </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1407,48 +1384,45 @@
         <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y8" t="n">
         <v>2</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
         <v>4</v>
       </c>
-      <c r="AC8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1522,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1564,9 +1538,6 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1649,22 +1620,22 @@
         <v>1</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
         <v>1</v>
@@ -1676,15 +1647,12 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1758,22 +1726,22 @@
         <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
         <v>1</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="n">
         <v>1</v>
@@ -1785,24 +1753,21 @@
         <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
         <v>1</v>
       </c>
       <c r="AI11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1876,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1885,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
         <v>1</v>
@@ -1894,13 +1859,13 @@
         <v>1</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -1912,15 +1877,12 @@
         <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1994,22 +1956,22 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="n">
         <v>1</v>
@@ -2024,21 +1986,18 @@
         <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2112,16 +2071,16 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2133,30 +2092,27 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2230,22 +2186,22 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
         <v>1</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2254,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
@@ -2266,15 +2222,12 @@
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2351,48 +2304,45 @@
         <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
         <v>2</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
         <v>4</v>
       </c>
-      <c r="AC16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2478,16 +2428,16 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -2496,21 +2446,18 @@
         <v>1</v>
       </c>
       <c r="AG17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2596,16 +2543,16 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>1</v>
@@ -2614,21 +2561,18 @@
         <v>1</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
         <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2711,42 +2655,39 @@
         <v>1</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
         <v>1</v>
       </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2826,45 +2767,42 @@
         <v>2</v>
       </c>
       <c r="Y20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z20" t="n">
         <v>4</v>
       </c>
       <c r="AA20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="n">
         <v>4</v>
       </c>
-      <c r="AB20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>2</v>
-      </c>
       <c r="AE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF20" t="n">
         <v>4</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>2</v>
       </c>
       <c r="AG20" t="n">
         <v>4</v>
       </c>
       <c r="AH20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2938,28 +2876,28 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>1</v>
@@ -2971,18 +2909,15 @@
         <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3100,9 +3035,6 @@
       <c r="AK22" t="n">
         <v>0</v>
       </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -3183,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
         <v>1</v>
@@ -3210,15 +3142,12 @@
         <v>1</v>
       </c>
       <c r="AI23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3292,22 +3221,22 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
         <v>1</v>
       </c>
       <c r="Z24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -3316,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -3328,15 +3257,12 @@
         <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3410,28 +3336,28 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>1</v>
@@ -3443,18 +3369,15 @@
         <v>1</v>
       </c>
       <c r="AH25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" t="n">
         <v>1</v>
@@ -3543,36 +3466,33 @@
         <v>1</v>
       </c>
       <c r="AB26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="n">
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,16 +3578,16 @@
         <v>1</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -3676,21 +3596,18 @@
         <v>1</v>
       </c>
       <c r="AG27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3770,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="n">
         <v>1</v>
@@ -3782,33 +3699,30 @@
         <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28" t="n">
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3888,45 +3802,42 @@
         <v>1</v>
       </c>
       <c r="Y29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4009,19 +3920,19 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="n">
         <v>1</v>
       </c>
       <c r="AB30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -4030,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH30" t="n">
         <v>1</v>
@@ -4039,12 +3950,9 @@
         <v>1</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,9 +4070,6 @@
       <c r="AK31" t="n">
         <v>0</v>
       </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -4239,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="X32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -4263,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32" t="n">
         <v>1</v>
@@ -4272,15 +4177,12 @@
         <v>1</v>
       </c>
       <c r="AI32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="n">
         <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4354,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
         <v>1</v>
@@ -4366,39 +4268,36 @@
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH33" t="n">
         <v>1</v>
       </c>
       <c r="AI33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4516,9 +4415,6 @@
       <c r="AK34" t="n">
         <v>0</v>
       </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -4590,16 +4486,16 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="n">
         <v>0</v>
@@ -4611,30 +4507,27 @@
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" t="n">
         <v>1</v>
       </c>
       <c r="AH35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4714,45 +4607,42 @@
         <v>1</v>
       </c>
       <c r="Y36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z36" t="n">
         <v>2</v>
       </c>
       <c r="AA36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4832,45 +4722,42 @@
         <v>1</v>
       </c>
       <c r="Y37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z37" t="n">
         <v>2</v>
       </c>
       <c r="AA37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC37" t="n">
         <v>1</v>
       </c>
       <c r="AD37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG37" t="n">
         <v>2</v>
       </c>
       <c r="AH37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4988,9 +4875,6 @@
       <c r="AK38" t="n">
         <v>0</v>
       </c>
-      <c r="AL38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -5062,10 +4946,10 @@
         <v>2</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y39" t="n">
         <v>4</v>
@@ -5074,39 +4958,36 @@
         <v>4</v>
       </c>
       <c r="AA39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB39" t="n">
         <v>4</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
         <v>6</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AE39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF39" t="n">
         <v>4</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>2</v>
       </c>
       <c r="AG39" t="n">
         <v>4</v>
       </c>
       <c r="AH39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ39" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5224,9 +5105,6 @@
       <c r="AK40" t="n">
         <v>0</v>
       </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -5298,13 +5176,13 @@
         <v>1</v>
       </c>
       <c r="W41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41" t="n">
         <v>1</v>
@@ -5316,33 +5194,30 @@
         <v>1</v>
       </c>
       <c r="AC41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG41" t="n">
         <v>1</v>
       </c>
       <c r="AH41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -5458,9 +5333,6 @@
         <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5534,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -5576,9 +5448,6 @@
         <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5652,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -5661,19 +5530,19 @@
         <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44" t="n">
         <v>1</v>
       </c>
       <c r="AB44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
         <v>0</v>
@@ -5682,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" t="n">
         <v>1</v>
@@ -5691,12 +5560,9 @@
         <v>1</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5770,10 +5636,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45" t="n">
         <v>1</v>
@@ -5788,33 +5654,30 @@
         <v>1</v>
       </c>
       <c r="AC45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG45" t="n">
         <v>2</v>
       </c>
       <c r="AH45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5891,48 +5754,45 @@
         <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI46" t="n">
         <v>5</v>
       </c>
-      <c r="AC46" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6015,42 +5875,39 @@
         <v>1</v>
       </c>
       <c r="Z47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI47" t="n">
         <v>4</v>
       </c>
-      <c r="AC47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6124,10 +5981,10 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y48" t="n">
         <v>1</v>
@@ -6136,39 +5993,36 @@
         <v>1</v>
       </c>
       <c r="AA48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH48" t="n">
         <v>1</v>
       </c>
       <c r="AI48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6251,42 +6105,39 @@
         <v>1</v>
       </c>
       <c r="Z49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI49" t="n">
         <v>4</v>
       </c>
-      <c r="AC49" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>1</v>
-      </c>
       <c r="AJ49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6360,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -6402,9 +6253,6 @@
         <v>0</v>
       </c>
       <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6522,9 +6370,6 @@
       <c r="AK51" t="n">
         <v>0</v>
       </c>
-      <c r="AL51" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -6596,51 +6441,48 @@
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y52" t="n">
         <v>2</v>
       </c>
       <c r="Z52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG52" t="n">
         <v>2</v>
       </c>
       <c r="AH52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6714,10 +6556,10 @@
         <v>1</v>
       </c>
       <c r="W53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53" t="n">
         <v>1</v>
@@ -6726,22 +6568,22 @@
         <v>1</v>
       </c>
       <c r="AA53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE53" t="n">
         <v>1</v>
       </c>
       <c r="AF53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG53" t="n">
         <v>0</v>
@@ -6750,15 +6592,12 @@
         <v>0</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6832,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
@@ -6874,9 +6713,6 @@
         <v>0</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6956,45 +6792,42 @@
         <v>1</v>
       </c>
       <c r="Y55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG55" t="n">
         <v>2</v>
       </c>
       <c r="AH55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7068,16 +6901,16 @@
         <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA56" t="n">
         <v>0</v>
@@ -7089,30 +6922,27 @@
         <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG56" t="n">
         <v>1</v>
       </c>
       <c r="AH56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7198,16 +7028,16 @@
         <v>1</v>
       </c>
       <c r="AA57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE57" t="n">
         <v>1</v>
@@ -7216,21 +7046,18 @@
         <v>1</v>
       </c>
       <c r="AG57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH57" t="n">
         <v>0</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -7304,22 +7131,22 @@
         <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58" t="n">
         <v>1</v>
       </c>
       <c r="Z58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC58" t="n">
         <v>0</v>
@@ -7328,10 +7155,10 @@
         <v>0</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58" t="n">
         <v>0</v>
@@ -7340,15 +7167,12 @@
         <v>0</v>
       </c>
       <c r="AI58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7422,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
@@ -7464,9 +7288,6 @@
         <v>0</v>
       </c>
       <c r="AK59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7540,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
@@ -7582,9 +7403,6 @@
         <v>0</v>
       </c>
       <c r="AK60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7664,45 +7482,42 @@
         <v>1</v>
       </c>
       <c r="Y61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z61" t="n">
         <v>2</v>
       </c>
       <c r="AA61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC61" t="n">
         <v>1</v>
       </c>
       <c r="AD61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG61" t="n">
         <v>2</v>
       </c>
       <c r="AH61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL61" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7776,7 +7591,7 @@
         <v>2</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X62" t="n">
         <v>2</v>
@@ -7785,42 +7600,39 @@
         <v>2</v>
       </c>
       <c r="Z62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF62" t="n">
         <v>4</v>
       </c>
-      <c r="AF62" t="n">
-        <v>1</v>
-      </c>
       <c r="AG62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI62" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ62" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL62" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7938,9 +7750,6 @@
       <c r="AK63" t="n">
         <v>0</v>
       </c>
-      <c r="AL63" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -8012,51 +7821,48 @@
         <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y64" t="n">
         <v>2</v>
       </c>
       <c r="Z64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG64" t="n">
         <v>2</v>
       </c>
       <c r="AH64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8130,16 +7936,16 @@
         <v>1</v>
       </c>
       <c r="W65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA65" t="n">
         <v>2</v>
@@ -8148,33 +7954,30 @@
         <v>2</v>
       </c>
       <c r="AC65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG65" t="n">
         <v>1</v>
       </c>
       <c r="AH65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL65" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8257,42 +8060,39 @@
         <v>1</v>
       </c>
       <c r="Z66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF66" t="n">
         <v>1</v>
       </c>
       <c r="AG66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH66" t="n">
         <v>0</v>
       </c>
       <c r="AI66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL66" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8369,19 +8169,19 @@
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y67" t="n">
         <v>1</v>
       </c>
       <c r="Z67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC67" t="n">
         <v>0</v>
@@ -8390,10 +8190,10 @@
         <v>0</v>
       </c>
       <c r="AE67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG67" t="n">
         <v>0</v>
@@ -8402,15 +8202,12 @@
         <v>0</v>
       </c>
       <c r="AI67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8490,45 +8287,42 @@
         <v>1</v>
       </c>
       <c r="Y68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z68" t="n">
         <v>2</v>
       </c>
       <c r="AA68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC68" t="n">
         <v>1</v>
       </c>
       <c r="AD68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG68" t="n">
         <v>2</v>
       </c>
       <c r="AH68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL68" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8602,28 +8396,28 @@
         <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC69" t="n">
         <v>0</v>
       </c>
       <c r="AD69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE69" t="n">
         <v>1</v>
@@ -8635,18 +8429,15 @@
         <v>1</v>
       </c>
       <c r="AH69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8720,28 +8511,28 @@
         <v>0</v>
       </c>
       <c r="W70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC70" t="n">
         <v>0</v>
       </c>
       <c r="AD70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE70" t="n">
         <v>1</v>
@@ -8753,18 +8544,15 @@
         <v>1</v>
       </c>
       <c r="AH70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8882,9 +8670,6 @@
       <c r="AK71" t="n">
         <v>0</v>
       </c>
-      <c r="AL71" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -8962,45 +8747,42 @@
         <v>2</v>
       </c>
       <c r="Y72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA72" t="n">
         <v>4</v>
       </c>
       <c r="AB72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF72" t="n">
         <v>4</v>
       </c>
-      <c r="AC72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
       <c r="AG72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH72" t="n">
         <v>4</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>6</v>
       </c>
       <c r="AI72" t="n">
         <v>4</v>
       </c>
       <c r="AJ72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL72" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9074,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X73" t="n">
         <v>0</v>
@@ -9083,19 +8865,19 @@
         <v>0</v>
       </c>
       <c r="Z73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA73" t="n">
         <v>1</v>
       </c>
       <c r="AB73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE73" t="n">
         <v>0</v>
@@ -9104,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="AG73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH73" t="n">
         <v>1</v>
@@ -9113,12 +8895,9 @@
         <v>1</v>
       </c>
       <c r="AJ73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9236,9 +9015,6 @@
       <c r="AK74" t="n">
         <v>0</v>
       </c>
-      <c r="AL74" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -9313,48 +9089,45 @@
         <v>1</v>
       </c>
       <c r="X75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ75" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9428,22 +9201,22 @@
         <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y76" t="n">
         <v>1</v>
       </c>
       <c r="Z76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC76" t="n">
         <v>0</v>
@@ -9452,10 +9225,10 @@
         <v>0</v>
       </c>
       <c r="AE76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG76" t="n">
         <v>0</v>
@@ -9464,15 +9237,12 @@
         <v>0</v>
       </c>
       <c r="AI76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9546,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
@@ -9588,9 +9358,6 @@
         <v>0</v>
       </c>
       <c r="AK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9664,10 +9431,10 @@
         <v>1</v>
       </c>
       <c r="W78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78" t="n">
         <v>1</v>
@@ -9676,22 +9443,22 @@
         <v>1</v>
       </c>
       <c r="AA78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE78" t="n">
         <v>1</v>
       </c>
       <c r="AF78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG78" t="n">
         <v>0</v>
@@ -9700,15 +9467,12 @@
         <v>0</v>
       </c>
       <c r="AI78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL78" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9791,13 +9555,13 @@
         <v>1</v>
       </c>
       <c r="Z79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC79" t="n">
         <v>1</v>
@@ -9818,15 +9582,12 @@
         <v>1</v>
       </c>
       <c r="AI79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9900,51 +9661,48 @@
         <v>2</v>
       </c>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y80" t="n">
         <v>2</v>
       </c>
       <c r="Z80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD80" t="n">
         <v>4</v>
       </c>
-      <c r="AB80" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>1</v>
-      </c>
       <c r="AE80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG80" t="n">
         <v>3</v>
       </c>
       <c r="AH80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI80" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ80" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL80" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10024,45 +9782,42 @@
         <v>1</v>
       </c>
       <c r="Y81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z81" t="n">
         <v>2</v>
       </c>
       <c r="AA81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC81" t="n">
         <v>1</v>
       </c>
       <c r="AD81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG81" t="n">
         <v>2</v>
       </c>
       <c r="AH81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL81" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10136,22 +9891,22 @@
         <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y82" t="n">
         <v>1</v>
       </c>
       <c r="Z82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC82" t="n">
         <v>0</v>
@@ -10160,10 +9915,10 @@
         <v>0</v>
       </c>
       <c r="AE82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG82" t="n">
         <v>0</v>
@@ -10172,15 +9927,12 @@
         <v>0</v>
       </c>
       <c r="AI82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10257,48 +10009,45 @@
         <v>1</v>
       </c>
       <c r="X83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y83" t="n">
         <v>2</v>
       </c>
       <c r="Z83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD83" t="n">
         <v>4</v>
       </c>
-      <c r="AB83" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>1</v>
-      </c>
       <c r="AE83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG83" t="n">
         <v>3</v>
       </c>
       <c r="AH83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI83" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AJ83" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AK83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL83" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10372,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X84" t="n">
         <v>0</v>
@@ -10381,19 +10130,19 @@
         <v>0</v>
       </c>
       <c r="Z84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA84" t="n">
         <v>1</v>
       </c>
       <c r="AB84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE84" t="n">
         <v>0</v>
@@ -10402,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="AG84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH84" t="n">
         <v>1</v>
@@ -10411,12 +10160,9 @@
         <v>1</v>
       </c>
       <c r="AJ84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10534,9 +10280,6 @@
       <c r="AK85" t="n">
         <v>0</v>
       </c>
-      <c r="AL85" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -10611,13 +10354,13 @@
         <v>1</v>
       </c>
       <c r="X86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y86" t="n">
         <v>0</v>
       </c>
       <c r="Z86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA86" t="n">
         <v>1</v>
@@ -10626,33 +10369,30 @@
         <v>1</v>
       </c>
       <c r="AC86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH86" t="n">
         <v>0</v>
       </c>
       <c r="AI86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10729,48 +10469,45 @@
         <v>1</v>
       </c>
       <c r="X87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI87" t="n">
         <v>4</v>
       </c>
-      <c r="AC87" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10850,45 +10587,42 @@
         <v>1</v>
       </c>
       <c r="Y88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG88" t="n">
         <v>2</v>
       </c>
       <c r="AH88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ88" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11006,9 +10740,6 @@
       <c r="AK89" t="n">
         <v>0</v>
       </c>
-      <c r="AL89" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -11080,51 +10811,48 @@
         <v>2</v>
       </c>
       <c r="W90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF90" t="n">
         <v>2</v>
       </c>
       <c r="AG90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI90" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ90" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL90" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11198,28 +10926,28 @@
         <v>0</v>
       </c>
       <c r="W91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z91" t="n">
         <v>1</v>
       </c>
       <c r="AA91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE91" t="n">
         <v>1</v>
@@ -11231,18 +10959,15 @@
         <v>1</v>
       </c>
       <c r="AH91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL91" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11316,31 +11041,31 @@
         <v>1</v>
       </c>
       <c r="W92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF92" t="n">
         <v>1</v>
@@ -11349,18 +11074,15 @@
         <v>1</v>
       </c>
       <c r="AH92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL92" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11434,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="W93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X93" t="n">
         <v>0</v>
@@ -11476,9 +11198,6 @@
         <v>0</v>
       </c>
       <c r="AK93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11555,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="X94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y94" t="n">
         <v>0</v>
@@ -11579,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="AF94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG94" t="n">
         <v>1</v>
@@ -11588,15 +11307,12 @@
         <v>1</v>
       </c>
       <c r="AI94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ94" t="n">
         <v>0</v>
       </c>
       <c r="AK94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11673,28 +11389,28 @@
         <v>0</v>
       </c>
       <c r="X95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF95" t="n">
         <v>1</v>
@@ -11703,18 +11419,15 @@
         <v>1</v>
       </c>
       <c r="AH95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL95" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11788,51 +11501,48 @@
         <v>0</v>
       </c>
       <c r="W96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y96" t="n">
         <v>2</v>
       </c>
       <c r="Z96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG96" t="n">
         <v>2</v>
       </c>
       <c r="AH96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL96" t="n">
         <v>2</v>
       </c>
     </row>
@@ -11906,31 +11616,31 @@
         <v>1</v>
       </c>
       <c r="W97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF97" t="n">
         <v>1</v>
@@ -11939,18 +11649,15 @@
         <v>1</v>
       </c>
       <c r="AH97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL97" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12068,9 +11775,6 @@
       <c r="AK98" t="n">
         <v>0</v>
       </c>
-      <c r="AL98" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -12142,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X99" t="n">
         <v>0</v>
@@ -12184,9 +11888,6 @@
         <v>0</v>
       </c>
       <c r="AK99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12260,10 +11961,10 @@
         <v>1</v>
       </c>
       <c r="W100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y100" t="n">
         <v>1</v>
@@ -12272,22 +11973,22 @@
         <v>1</v>
       </c>
       <c r="AA100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE100" t="n">
         <v>1</v>
       </c>
       <c r="AF100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG100" t="n">
         <v>0</v>
@@ -12296,15 +11997,12 @@
         <v>0</v>
       </c>
       <c r="AI100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL100" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12381,48 +12079,45 @@
         <v>1</v>
       </c>
       <c r="X101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI101" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ101" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL101" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12496,51 +12191,48 @@
         <v>1</v>
       </c>
       <c r="W102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z102" t="n">
         <v>2</v>
       </c>
       <c r="AA102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC102" t="n">
         <v>1</v>
       </c>
       <c r="AD102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF102" t="n">
         <v>1</v>
       </c>
       <c r="AG102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ102" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL102" t="n">
         <v>3</v>
       </c>
     </row>
@@ -12614,25 +12306,25 @@
         <v>0</v>
       </c>
       <c r="W103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD103" t="n">
         <v>1</v>
@@ -12644,21 +12336,18 @@
         <v>1</v>
       </c>
       <c r="AG103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL103" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12732,7 +12421,7 @@
         <v>0</v>
       </c>
       <c r="W104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X104" t="n">
         <v>0</v>
@@ -12774,9 +12463,6 @@
         <v>0</v>
       </c>
       <c r="AK104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12894,9 +12580,6 @@
       <c r="AK105" t="n">
         <v>0</v>
       </c>
-      <c r="AL105" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -13012,9 +12695,6 @@
       <c r="AK106" t="n">
         <v>0</v>
       </c>
-      <c r="AL106" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -13086,7 +12766,7 @@
         <v>0</v>
       </c>
       <c r="W107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
@@ -13128,9 +12808,6 @@
         <v>0</v>
       </c>
       <c r="AK107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13204,22 +12881,22 @@
         <v>0</v>
       </c>
       <c r="W108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y108" t="n">
         <v>1</v>
       </c>
       <c r="Z108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC108" t="n">
         <v>0</v>
@@ -13228,10 +12905,10 @@
         <v>0</v>
       </c>
       <c r="AE108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG108" t="n">
         <v>0</v>
@@ -13240,15 +12917,12 @@
         <v>0</v>
       </c>
       <c r="AI108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13322,22 +12996,22 @@
         <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y109" t="n">
         <v>1</v>
       </c>
       <c r="Z109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC109" t="n">
         <v>0</v>
@@ -13346,10 +13020,10 @@
         <v>0</v>
       </c>
       <c r="AE109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG109" t="n">
         <v>0</v>
@@ -13358,15 +13032,12 @@
         <v>0</v>
       </c>
       <c r="AI109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13443,48 +13114,45 @@
         <v>1</v>
       </c>
       <c r="X110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z110" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB110" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG110" t="n">
         <v>2</v>
       </c>
       <c r="AH110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI110" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ110" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL110" t="n">
         <v>5</v>
       </c>
     </row>
@@ -13602,9 +13270,6 @@
       <c r="AK111" t="n">
         <v>0</v>
       </c>
-      <c r="AL111" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -13679,28 +13344,28 @@
         <v>0</v>
       </c>
       <c r="X112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF112" t="n">
         <v>1</v>
@@ -13709,18 +13374,15 @@
         <v>1</v>
       </c>
       <c r="AH112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL112" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13794,28 +13456,28 @@
         <v>0</v>
       </c>
       <c r="W113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC113" t="n">
         <v>0</v>
       </c>
       <c r="AD113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE113" t="n">
         <v>1</v>
@@ -13827,18 +13489,15 @@
         <v>1</v>
       </c>
       <c r="AH113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL113" t="n">
         <v>1</v>
       </c>
     </row>

--- a/app/outputs/needs_match.xlsx
+++ b/app/outputs/needs_match.xlsx
@@ -2698,112 +2698,112 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2</v>
-      </c>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2</v>
-      </c>
-      <c r="X20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>8</v>
-      </c>
       <c r="AJ20" t="n">
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -3614,7 +3614,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Consejo Nacional de Investigaciones Científicas y Técnicas</t>
+          <t>Consejo Nacional de Investigaciones CientÃ­ficas y TÃ©cnicas</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4883,46 +4883,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -4931,64 +4931,64 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC39" t="n">
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH39" t="n">
         <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AJ39" t="n">
         <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -8678,13 +8678,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -8696,34 +8696,34 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -8741,49 +8741,49 @@
         <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y72" t="n">
         <v>0</v>
       </c>
       <c r="Z72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE72" t="n">
         <v>0</v>
       </c>
       <c r="AF72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AJ72" t="n">
         <v>0</v>
       </c>
       <c r="AK72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -10748,28 +10748,28 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -10784,10 +10784,10 @@
         <v>1</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
@@ -10796,7 +10796,7 @@
         <v>1</v>
       </c>
       <c r="R90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S90" t="n">
         <v>3</v>
@@ -10805,7 +10805,7 @@
         <v>2</v>
       </c>
       <c r="U90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V90" t="n">
         <v>2</v>
@@ -10814,16 +10814,16 @@
         <v>1</v>
       </c>
       <c r="X90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z90" t="n">
         <v>2</v>
       </c>
       <c r="AA90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB90" t="n">
         <v>2</v>
@@ -10832,28 +10832,28 @@
         <v>0</v>
       </c>
       <c r="AD90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH90" t="n">
         <v>0</v>
       </c>
       <c r="AI90" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ90" t="n">
         <v>0</v>
       </c>
       <c r="AK90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
